--- a/ExcelLoader/book.xlsx
+++ b/ExcelLoader/book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>товар 1</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>grewte</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D103"/>
+  <dimension ref="C4:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +879,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>26</v>
       </c>
@@ -881,7 +887,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>27</v>
       </c>
@@ -889,7 +895,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>28</v>
       </c>
@@ -897,7 +903,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -905,7 +911,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -913,7 +919,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -921,7 +927,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -929,7 +935,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>32</v>
       </c>
@@ -937,15 +943,30 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>435</v>
       </c>
       <c r="D41">
         <v>2026</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>SUM(F42:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>5689</v>
+      </c>
+      <c r="G42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>33</v>
       </c>
@@ -953,7 +974,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>34</v>
       </c>
@@ -961,7 +982,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>35</v>
       </c>
@@ -969,7 +990,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>36</v>
       </c>
@@ -977,7 +998,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>37</v>
       </c>
@@ -985,7 +1006,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>38</v>
       </c>
@@ -1039,6 +1060,12 @@
       </c>
       <c r="D54">
         <v>2038</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>SUM(G41:G42)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
